--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="191">
   <si>
     <t xml:space="preserve">usuario_id</t>
   </si>
@@ -613,7 +613,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -635,7 +634,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -643,14 +641,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFDDDDDD"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -658,7 +654,6 @@
       <color rgb="FFDDDDDD"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -743,7 +738,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -858,10 +853,6 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1016,7 +1007,7 @@
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.33"/>
@@ -1033,7 +1024,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1073,7 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
@@ -1131,7 +1122,7 @@
       <c r="AA2" s="10"/>
       <c r="AB2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
@@ -1180,7 +1171,7 @@
       <c r="AA3" s="10"/>
       <c r="AB3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
@@ -1229,7 +1220,7 @@
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
@@ -1278,7 +1269,7 @@
       <c r="AA5" s="10"/>
       <c r="AB5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
@@ -1327,7 +1318,7 @@
       <c r="AA6" s="10"/>
       <c r="AB6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
@@ -1376,7 +1367,7 @@
       <c r="AA7" s="10"/>
       <c r="AB7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
@@ -1425,7 +1416,7 @@
       <c r="AA8" s="10"/>
       <c r="AB8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
@@ -1474,7 +1465,7 @@
       <c r="AA9" s="10"/>
       <c r="AB9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
@@ -1523,7 +1514,7 @@
       <c r="AA10" s="10"/>
       <c r="AB10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
@@ -1600,7 +1591,7 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
@@ -1669,7 +1660,7 @@
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>2</v>
       </c>
@@ -1703,7 +1694,7 @@
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>3</v>
       </c>
@@ -1737,7 +1728,7 @@
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>4</v>
       </c>
@@ -1771,7 +1762,7 @@
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>5</v>
       </c>
@@ -1805,7 +1796,7 @@
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>6</v>
       </c>
@@ -1839,7 +1830,7 @@
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>7</v>
       </c>
@@ -1873,7 +1864,7 @@
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>8</v>
       </c>
@@ -1907,7 +1898,7 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>9</v>
       </c>
@@ -1941,7 +1932,7 @@
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>10</v>
       </c>
@@ -8371,13 +8362,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="27.09"/>
@@ -8803,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
         <v>1</v>
       </c>
@@ -8829,7 +8820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="n">
         <v>2</v>
       </c>
@@ -8855,7 +8846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
         <v>3</v>
       </c>
@@ -8881,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="n">
         <v>4</v>
       </c>
@@ -8907,7 +8898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="n">
         <v>5</v>
       </c>
@@ -8933,7 +8924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="22" t="n">
         <v>6</v>
       </c>
@@ -9010,7 +9001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="n">
         <v>1</v>
       </c>
@@ -9030,7 +9021,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="n">
         <v>2</v>
       </c>
@@ -9057,7 +9048,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="n">
         <v>3</v>
       </c>
@@ -9083,7 +9074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="22" t="n">
         <v>4</v>
       </c>
@@ -9109,7 +9100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="n">
         <v>5</v>
       </c>
@@ -10335,20 +10326,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:D1"/>
@@ -10375,13 +10352,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R91"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M42" activeCellId="0" sqref="M42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="13.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="27.09"/>
@@ -10405,11 +10382,11 @@
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
@@ -10567,11 +10544,11 @@
       <c r="D9" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="n">
@@ -10586,13 +10563,13 @@
       <c r="D10" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="n">
@@ -10607,19 +10584,19 @@
       <c r="D11" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="30"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="n">
@@ -10634,53 +10611,53 @@
       <c r="D12" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="34" t="n">
+      <c r="H12" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="36" t="n">
+      <c r="K12" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="30"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="34" t="n">
+      <c r="H13" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="L13" s="30"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
         <v>133</v>
       </c>
       <c r="B14" s="18"/>
-      <c r="H14" s="34" t="n">
+      <c r="H14" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="L14" s="30"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
@@ -10689,153 +10666,151 @@
       <c r="B15" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="H15" s="34" t="n">
+      <c r="H15" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="n">
         <v>1</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="34" t="n">
+      <c r="H16" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="n">
         <v>2</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="34" t="n">
+      <c r="H17" s="33" t="n">
         <v>6</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="n">
         <v>3</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="34" t="n">
+      <c r="H18" s="33" t="n">
         <v>7</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="n">
         <v>4</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="34" t="n">
+      <c r="H19" s="33" t="n">
         <v>8</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="n">
         <v>5</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="34" t="n">
+      <c r="H20" s="33" t="n">
         <v>9</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="L20" s="30"/>
+      <c r="L20" s="29"/>
       <c r="P20" s="18" t="s">
         <v>118</v>
       </c>
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
     </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="22" t="n">
         <v>6</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="34" t="n">
+      <c r="H21" s="33" t="n">
         <v>10</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="P21" s="21" t="s">
-        <v>124</v>
-      </c>
+      <c r="L21" s="29"/>
+      <c r="P21" s="21"/>
       <c r="Q21" s="21" t="s">
         <v>0</v>
       </c>
@@ -10844,14 +10819,12 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="P22" s="25" t="n">
-        <v>1</v>
-      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="P22" s="25"/>
       <c r="Q22" s="23" t="s">
         <v>126</v>
       </c>
@@ -10866,9 +10839,7 @@
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="P23" s="25" t="n">
-        <v>2</v>
-      </c>
+      <c r="P23" s="25"/>
       <c r="Q23" s="23" t="s">
         <v>126</v>
       </c>
@@ -10889,9 +10860,7 @@
       <c r="D24" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="P24" s="25" t="n">
-        <v>3</v>
-      </c>
+      <c r="P24" s="25"/>
       <c r="Q24" s="23" t="s">
         <v>126</v>
       </c>
@@ -10899,7 +10868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="n">
         <v>1</v>
       </c>
@@ -10917,9 +10886,7 @@
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="P25" s="25" t="n">
-        <v>4</v>
-      </c>
+      <c r="P25" s="25"/>
       <c r="Q25" s="23" t="s">
         <v>127</v>
       </c>
@@ -10927,7 +10894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="n">
         <v>2</v>
       </c>
@@ -10950,9 +10917,7 @@
         <v>4</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="P26" s="25" t="n">
-        <v>5</v>
-      </c>
+      <c r="P26" s="25"/>
       <c r="Q26" s="23" t="s">
         <v>127</v>
       </c>
@@ -10960,7 +10925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="n">
         <v>3</v>
       </c>
@@ -10982,9 +10947,7 @@
       <c r="J27" s="28" t="n">
         <v>43889.4485532407</v>
       </c>
-      <c r="P27" s="25" t="n">
-        <v>6</v>
-      </c>
+      <c r="P27" s="25"/>
       <c r="Q27" s="23" t="s">
         <v>128</v>
       </c>
@@ -10992,7 +10955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="22" t="n">
         <v>4</v>
       </c>
@@ -11014,9 +10977,7 @@
       <c r="J28" s="28" t="n">
         <v>43953.2295717593</v>
       </c>
-      <c r="P28" s="25" t="n">
-        <v>7</v>
-      </c>
+      <c r="P28" s="25"/>
       <c r="Q28" s="23" t="s">
         <v>128</v>
       </c>
@@ -11024,7 +10985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="n">
         <v>5</v>
       </c>
@@ -11046,9 +11007,7 @@
       <c r="J29" s="28" t="n">
         <v>43896.4739930556</v>
       </c>
-      <c r="P29" s="25" t="n">
-        <v>8</v>
-      </c>
+      <c r="P29" s="25"/>
       <c r="Q29" s="23" t="s">
         <v>130</v>
       </c>
@@ -11078,9 +11037,7 @@
       <c r="J30" s="28" t="n">
         <v>44048.3370023148</v>
       </c>
-      <c r="P30" s="25" t="n">
-        <v>9</v>
-      </c>
+      <c r="P30" s="25"/>
       <c r="Q30" s="23" t="s">
         <v>131</v>
       </c>
@@ -11110,9 +11067,7 @@
       <c r="J31" s="28" t="n">
         <v>44088.6891435185</v>
       </c>
-      <c r="P31" s="25" t="n">
-        <v>10</v>
-      </c>
+      <c r="P31" s="25"/>
       <c r="Q31" s="23" t="s">
         <v>131</v>
       </c>
@@ -11142,9 +11097,7 @@
       <c r="J32" s="28" t="n">
         <v>43832.3198263889</v>
       </c>
-      <c r="P32" s="25" t="n">
-        <v>11</v>
-      </c>
+      <c r="P32" s="25"/>
       <c r="Q32" s="23" t="s">
         <v>132</v>
       </c>
@@ -11174,9 +11127,7 @@
       <c r="J33" s="28" t="n">
         <v>43967.2613657407</v>
       </c>
-      <c r="P33" s="25" t="n">
-        <v>12</v>
-      </c>
+      <c r="P33" s="25"/>
       <c r="Q33" s="23" t="s">
         <v>132</v>
       </c>
@@ -11206,9 +11157,7 @@
       <c r="J34" s="28" t="n">
         <v>44113.5193055556</v>
       </c>
-      <c r="P34" s="25" t="n">
-        <v>13</v>
-      </c>
+      <c r="P34" s="25"/>
       <c r="Q34" s="23" t="s">
         <v>132</v>
       </c>
@@ -11226,9 +11175,7 @@
       <c r="J35" s="28" t="n">
         <v>44095.5519212963</v>
       </c>
-      <c r="P35" s="25" t="n">
-        <v>14</v>
-      </c>
+      <c r="P35" s="25"/>
       <c r="Q35" s="23" t="s">
         <v>135</v>
       </c>
@@ -11253,9 +11200,7 @@
       <c r="J36" s="28" t="n">
         <v>44148.7050115741</v>
       </c>
-      <c r="P36" s="25" t="n">
-        <v>15</v>
-      </c>
+      <c r="P36" s="25"/>
       <c r="Q36" s="23" t="s">
         <v>135</v>
       </c>
@@ -11288,9 +11233,7 @@
       <c r="J37" s="28" t="n">
         <v>44170.7767361111</v>
       </c>
-      <c r="P37" s="25" t="n">
-        <v>16</v>
-      </c>
+      <c r="P37" s="25"/>
       <c r="Q37" s="23" t="s">
         <v>136</v>
       </c>
@@ -11323,9 +11266,7 @@
       <c r="J38" s="28" t="n">
         <v>44042.4166666667</v>
       </c>
-      <c r="P38" s="25" t="n">
-        <v>17</v>
-      </c>
+      <c r="P38" s="25"/>
       <c r="Q38" s="23" t="s">
         <v>136</v>
       </c>
@@ -11358,9 +11299,7 @@
       <c r="J39" s="28" t="n">
         <v>44423.7153935185</v>
       </c>
-      <c r="P39" s="25" t="n">
-        <v>18</v>
-      </c>
+      <c r="P39" s="25"/>
       <c r="Q39" s="23" t="s">
         <v>137</v>
       </c>
@@ -11394,9 +11333,7 @@
         <v>44387.6392361111</v>
       </c>
       <c r="L40" s="1"/>
-      <c r="P40" s="25" t="n">
-        <v>19</v>
-      </c>
+      <c r="P40" s="25"/>
       <c r="Q40" s="23" t="s">
         <v>137</v>
       </c>
@@ -11429,9 +11366,7 @@
       <c r="J41" s="28" t="n">
         <v>44205.0726041667</v>
       </c>
-      <c r="P41" s="25" t="n">
-        <v>20</v>
-      </c>
+      <c r="P41" s="25"/>
       <c r="Q41" s="23" t="s">
         <v>137</v>
       </c>
@@ -11464,9 +11399,7 @@
       <c r="J42" s="28" t="n">
         <v>44015.8149074074</v>
       </c>
-      <c r="P42" s="25" t="n">
-        <v>21</v>
-      </c>
+      <c r="P42" s="25"/>
       <c r="Q42" s="23" t="s">
         <v>139</v>
       </c>
@@ -11499,9 +11432,7 @@
       <c r="J43" s="28" t="n">
         <v>42790.8849768519</v>
       </c>
-      <c r="P43" s="25" t="n">
-        <v>22</v>
-      </c>
+      <c r="P43" s="25"/>
       <c r="Q43" s="23" t="s">
         <v>139</v>
       </c>
@@ -12276,20 +12207,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:D1"/>
@@ -12316,7 +12233,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
@@ -12324,6 +12241,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
